--- a/public/pendudukData/penduduk.xlsx
+++ b/public/pendudukData/penduduk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f1a29789a7a2828/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MOHAMAD IBNU MAGGIE\Downloads\dika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF5F2B6-BE0D-4B6F-BEC3-B9199D47C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7316B1-96DB-48DD-9C83-DAEAAFC4AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20E0D42B-8907-469D-B29C-1667298C78D6}"/>
+    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{20E0D42B-8907-469D-B29C-1667298C78D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11500,11 +11500,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AE1323-5C96-4685-B00C-7EEE4B28433D}">
   <dimension ref="A1:AD782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
